--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2289227.833133996</v>
+        <v>2286975.753422789</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283193</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>114.4918089738209</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -716,13 +716,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>23.79925355567503</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -744,7 +744,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554007</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -798,7 +798,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609193</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>256.681185702593</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>31.9860061253497</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -908,10 +908,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>82.99473116157712</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>34.6857201383384</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>31.78085380126538</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>59.20707587877088</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>128.253870317768</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>245.8056267012325</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1342,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>81.77200357366338</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>217.509075469704</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986295</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>68.98225678327195</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1616,10 +1616,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>121.8000472740298</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>258.0279804307043</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833367</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>26.13627195705896</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>113.5413580759696</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,13 +2479,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>113.6427030833204</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>31.26260713376613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>27.02919805176115</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>55.52079624060473</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2959,13 +2959,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>55.52079624060383</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>31.8302520576399</v>
       </c>
     </row>
     <row r="32">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,10 +3193,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>66.25628701154712</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,10 +3235,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>66.25628701154714</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>253.2918698186439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3901,16 +3901,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>98.42683230404785</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4147,13 +4147,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.64725059288511</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>6.228861054224896</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4325,19 +4325,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4352,28 +4352,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2731.767278738087</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2731.767278738087</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2731.767278738087</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="3">
@@ -4383,13 +4383,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
         <v>458.9189605332749</v>
@@ -4404,7 +4404,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,34 +4462,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>607.0615673062264</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C4" t="n">
-        <v>607.0615673062264</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D4" t="n">
-        <v>456.9449278938906</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E4" t="n">
-        <v>456.9449278938906</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
@@ -4510,28 +4510,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>639.3706644025392</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T4" t="n">
-        <v>639.3706644025392</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="U4" t="n">
-        <v>639.3706644025392</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="V4" t="n">
-        <v>639.3706644025392</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="W4" t="n">
-        <v>607.0615673062264</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="X4" t="n">
-        <v>607.0615673062264</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="Y4" t="n">
-        <v>607.0615673062264</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1239.503030201924</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>870.5405132615124</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>512.2748146547618</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>126.4865620565176</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073142</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4568,7 +4568,7 @@
         <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4583,7 +4583,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052369</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3241.772759829801</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3035.795012214023</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3035.795012214023</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="W5" t="n">
-        <v>2389.707960502938</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="X5" t="n">
-        <v>2016.242202241858</v>
+        <v>2331.266366609372</v>
       </c>
       <c r="Y5" t="n">
-        <v>1626.102870266046</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="6">
@@ -4635,22 +4635,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>458.6408346941415</v>
+        <v>246.5270825411072</v>
       </c>
       <c r="C7" t="n">
-        <v>458.6408346941415</v>
+        <v>246.5270825411072</v>
       </c>
       <c r="D7" t="n">
-        <v>458.6408346941415</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>310.7277411117484</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218343</v>
@@ -4747,28 +4747,28 @@
         <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>861.0818786679114</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>861.0818786679114</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="T7" t="n">
-        <v>861.0818786679114</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="U7" t="n">
-        <v>861.0818786679114</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="V7" t="n">
-        <v>861.0818786679114</v>
+        <v>474.5166334391246</v>
       </c>
       <c r="W7" t="n">
-        <v>861.0818786679114</v>
+        <v>474.5166334391246</v>
       </c>
       <c r="X7" t="n">
-        <v>861.0818786679114</v>
+        <v>246.5270825411072</v>
       </c>
       <c r="Y7" t="n">
-        <v>640.2892995243812</v>
+        <v>246.5270825411072</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1243.280836875046</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C8" t="n">
-        <v>874.3183199346347</v>
+        <v>939.4077790033361</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363905</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678289</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3077.317309789745</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2746.254422446174</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2393.48576717606</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2020.02000891498</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1629.880676939168</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>701.1808689801002</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C10" t="n">
-        <v>532.2446860521933</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D10" t="n">
-        <v>382.1280466398576</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
@@ -4969,43 +4969,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>920.887005818185</v>
+        <v>838.2890224104441</v>
       </c>
       <c r="U10" t="n">
-        <v>920.887005818185</v>
+        <v>549.1861555360877</v>
       </c>
       <c r="V10" t="n">
-        <v>920.887005818185</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="W10" t="n">
-        <v>920.887005818185</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X10" t="n">
-        <v>701.1808689801002</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y10" t="n">
-        <v>701.1808689801002</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004712</v>
@@ -5027,64 +5027,64 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>800.6374272687992</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>631.7012443408906</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408906</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1431.068022140586</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1203.078471242569</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>982.285892099039</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5303,25 +5303,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>315.9123021921487</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>315.9123021921487</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>913.2907898187003</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>2148.04349261611</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400662</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>513.8536007400662</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>363.7369613277305</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>363.7369613277305</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>216.8470138298201</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>216.8470138298201</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5449,37 +5449,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487562</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487566</v>
+        <v>1977.461080510503</v>
       </c>
       <c r="U16" t="n">
-        <v>1936.428221820188</v>
+        <v>1688.385853854701</v>
       </c>
       <c r="V16" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648814</v>
       </c>
       <c r="W16" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611853</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138361</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703059</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,40 +5525,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>119.2902967703784</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K18" t="n">
-        <v>119.2902967703784</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703784</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C19" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>194.8007783998241</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R19" t="n">
-        <v>2420.562808876161</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S19" t="n">
-        <v>2420.562808876161</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T19" t="n">
-        <v>2420.562808876161</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U19" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V19" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W19" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X19" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y19" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="20">
@@ -5738,22 +5738,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,16 +5762,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,25 +5826,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>924.8344286397185</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>924.8344286397185</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373306</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612593</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P21" t="n">
         <v>2516.421633107662</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>983.3556038098242</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>814.4194208819173</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>664.3027814695815</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1165.004068640064</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5963,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6005,34 +6005,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>150.8995423128889</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803938</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L24" t="n">
-        <v>245.2306927803938</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M24" t="n">
-        <v>842.6091804069456</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
-        <v>1470.207143961552</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2022.116874200839</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>983.3556038098242</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>814.4194208819173</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
-        <v>664.3027814695815</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>516.3896878871884</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
         <v>484.8112968429802</v>
@@ -6142,55 +6142,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1903.203368718572</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1613.786198681611</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>1385.796647783594</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>1165.004068640064</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N27" t="n">
-        <v>1671.859558793925</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>2223.769289033212</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>444.7013164925226</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>296.7882229101294</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F28" t="n">
-        <v>149.8982754122191</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G28" t="n">
-        <v>149.8982754122191</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6437,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6470,43 +6470,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961525</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>1337.934786622704</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1337.934786622704</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1889.844516861991</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327643</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048574</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D31" t="n">
-        <v>444.7013164925216</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E31" t="n">
-        <v>296.7882229101285</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>149.8982754122182</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.402603663004</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="32">
@@ -6686,31 +6686,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6777,19 +6777,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>590.9096564684977</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>916.3099000622261</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C34" t="n">
-        <v>747.3737171343192</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D34" t="n">
-        <v>597.2570777219835</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E34" t="n">
-        <v>449.3439841395904</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>302.45403664168</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>302.45403664168</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>160.7422054838781</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,46 +6911,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6962,25 +6962,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>680.448174698413</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>530.3315352860773</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E37" t="n">
-        <v>382.4184417036842</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2312.991837396757</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2312.991837396757</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7163,7 +7163,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7172,7 +7172,7 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075813</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7391,28 +7391,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>590.9096564684977</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M42" t="n">
-        <v>1188.28814409505</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>637.9025067654818</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
         <v>175.9033664000583</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7622,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438171</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C46" t="n">
-        <v>847.644273983533</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711973</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888042</v>
+        <v>445.6984928076085</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>298.8085453096982</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>298.8085453096982</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>157.0967141518962</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487568</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1647.011051783227</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>217.540741553319</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>18.49466557219414</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,13 +23704,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>28.15649395853984</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.4596884482355</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>40.23897475306271</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>32.89260457059957</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,13 +24367,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>34.97276993489197</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>114.1584408891651</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>119.404764594808</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>84.77391660561912</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24847,13 +24847,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>110.003342051665</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>186.7544012944549</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,10 +25081,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>6.922421112517611</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>15.00954930701842</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25123,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>43.72409101823415</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25360,10 +25360,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>114.7699989900974</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>32.89260457060021</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,16 +25789,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.1578210480469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,13 +26020,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>18.61858572568042</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>280.2941372823661</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>821785.2548503019</v>
+        <v>821785.2548503017</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>821785.2548503019</v>
+        <v>821785.2548503017</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>821785.2548503019</v>
+        <v>821785.2548503018</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>821785.2548503019</v>
+        <v>821785.2548503018</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>821785.2548503019</v>
+        <v>821785.2548503018</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>821785.2548503019</v>
+        <v>821785.2548503018</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>821785.2548503019</v>
+        <v>821785.2548503018</v>
       </c>
     </row>
     <row r="16">
@@ -26314,43 +26314,43 @@
         <v>615781.3273982122</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982122</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="F2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="G2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="H2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.949767504</v>
       </c>
       <c r="I2" t="n">
         <v>605359.949767504</v>
       </c>
       <c r="J2" t="n">
-        <v>605359.949767504</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="K2" t="n">
-        <v>605359.9497675039</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="L2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="M2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="N2" t="n">
         <v>605359.9497675041</v>
       </c>
-      <c r="M2" t="n">
-        <v>605359.9497675039</v>
-      </c>
-      <c r="N2" t="n">
-        <v>605359.9497675042</v>
-      </c>
       <c r="O2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="P2" t="n">
         <v>605359.9497675042</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>93596.74410405257</v>
+      </c>
+      <c r="C4" t="n">
+        <v>93596.74410405249</v>
+      </c>
+      <c r="D4" t="n">
         <v>93596.74410405254</v>
       </c>
-      <c r="C4" t="n">
-        <v>93596.74410405253</v>
-      </c>
-      <c r="D4" t="n">
-        <v>93596.74410405252</v>
-      </c>
       <c r="E4" t="n">
+        <v>15436.6400068797</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="G4" t="n">
         <v>15436.64000687966</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>15436.64000687966</v>
       </c>
-      <c r="G4" t="n">
-        <v>15436.64000687964</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
+        <v>15436.64000687973</v>
+      </c>
+      <c r="J4" t="n">
+        <v>15436.6400068797</v>
+      </c>
+      <c r="K4" t="n">
+        <v>15436.6400068797</v>
+      </c>
+      <c r="L4" t="n">
+        <v>15436.64000687966</v>
+      </c>
+      <c r="M4" t="n">
+        <v>15436.64000687966</v>
+      </c>
+      <c r="N4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="I4" t="n">
+      <c r="O4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="J4" t="n">
+      <c r="P4" t="n">
         <v>15436.64000687967</v>
-      </c>
-      <c r="K4" t="n">
-        <v>15436.64000687967</v>
-      </c>
-      <c r="L4" t="n">
-        <v>15436.64000687967</v>
-      </c>
-      <c r="M4" t="n">
-        <v>15436.64000687972</v>
-      </c>
-      <c r="N4" t="n">
-        <v>15436.64000687966</v>
-      </c>
-      <c r="O4" t="n">
-        <v>15436.64000687969</v>
-      </c>
-      <c r="P4" t="n">
-        <v>15436.64000687966</v>
       </c>
     </row>
     <row r="5">
@@ -26522,46 +26522,46 @@
         <v>-914494.1029948263</v>
       </c>
       <c r="C6" t="n">
-        <v>414250.6427327666</v>
+        <v>414250.6427327663</v>
       </c>
       <c r="D6" t="n">
-        <v>414250.6427327667</v>
+        <v>414250.6427327665</v>
       </c>
       <c r="E6" t="n">
-        <v>163388.3181293627</v>
+        <v>163353.5802039269</v>
       </c>
       <c r="F6" t="n">
-        <v>488800.7799367175</v>
+        <v>488766.042011282</v>
       </c>
       <c r="G6" t="n">
-        <v>488800.7799367172</v>
+        <v>488766.0420112814</v>
       </c>
       <c r="H6" t="n">
-        <v>488800.7799367174</v>
+        <v>488766.0420112815</v>
       </c>
       <c r="I6" t="n">
-        <v>488800.7799367172</v>
+        <v>488766.0420112815</v>
       </c>
       <c r="J6" t="n">
-        <v>271269.5775394397</v>
+        <v>271234.8396140043</v>
       </c>
       <c r="K6" t="n">
-        <v>488800.7799367172</v>
+        <v>488766.0420112818</v>
       </c>
       <c r="L6" t="n">
-        <v>488800.7799367173</v>
+        <v>488766.0420112818</v>
       </c>
       <c r="M6" t="n">
-        <v>403745.7520012053</v>
+        <v>403711.0140757699</v>
       </c>
       <c r="N6" t="n">
-        <v>488800.7799367174</v>
+        <v>488766.0420112816</v>
       </c>
       <c r="O6" t="n">
-        <v>488800.7799367173</v>
+        <v>488766.0420112818</v>
       </c>
       <c r="P6" t="n">
-        <v>488800.7799367173</v>
+        <v>488766.0420112817</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>240.1912326468621</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>303.9530049144599</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27464,7 +27464,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27518,7 +27518,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>29.53065250301989</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>254.5369922112413</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27628,10 +27628,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>26.19303062659871</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>314.5552485790746</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>116.834619216947</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>29.72507679127645</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27831,16 +27831,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>226.4291713029149</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>5.189545257669522</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28011,19 +28011,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28062,19 +28062,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>137.7769457025058</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>8.200579919333194</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28099,10 +28099,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28336,10 +28336,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28521,10 +28521,10 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>-2.430161791044281e-12</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28752,7 +28752,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -31622,7 +31622,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31844,31 +31844,31 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963283</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>734.267838362267</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32078,34 +32078,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>362.1804684129214</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>307.4654529393634</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>152.5685698206127</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,34 +32540,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>753.6188077738261</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>448.9178583921318</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32576,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>184.4971006716334</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>211.3773391483997</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32944,34 +32944,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>508.374771698973</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>193.964997009853</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33263,10 +33263,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33278,7 +33278,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>531.2627466777524</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33497,22 +33497,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M33" t="n">
-        <v>232.1537035940586</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33734,7 +33734,7 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>530.4152909475304</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33892,10 +33892,10 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33968,16 +33968,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>142.1340339220183</v>
@@ -33992,10 +33992,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>172.8142548092792</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34135,7 +34135,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M41" t="n">
         <v>965.6463440175675</v>
@@ -34205,25 +34205,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>233.3139244897921</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>251.886104915025</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>391.6051949514474</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>699.0496615458086</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35492,25 +35492,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>261.3487819164541</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402486</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35726,28 +35726,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>224.3390294385624</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>173.4910455250332</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060437</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066202</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>25.73094315394599</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010404</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>622.2770956904928</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>314.9434509778015</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>57.65947400496672</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>71.39556506237817</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,7 +36677,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>369.8203919190988</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>59.99058959552271</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36911,10 +36911,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36926,7 +36926,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>397.2883392634221</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37145,22 +37145,22 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M33" t="n">
-        <v>90.01966967204032</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>399.073578864197</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,10 +37540,10 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37640,10 +37640,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>27.13475084531527</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37853,25 +37853,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>94.75954470991793</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>120.5443928316917</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>253.0508151715732</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>556.4534171013642</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
